--- a/SPPSApi/Doc/Template/FS1402_Export.xlsx
+++ b/SPPSApi/Doc/Template/FS1402_Export.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15075" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="15075" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,43 +14,34 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>序号</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>品番</t>
+  </si>
+  <si>
+    <t>检查区分</t>
+  </si>
+  <si>
+    <t>变更原因</t>
+  </si>
+  <si>
+    <t>特记事项</t>
+  </si>
+  <si>
+    <t>操作人</t>
+  </si>
+  <si>
+    <t>操作时间</t>
+  </si>
+  <si>
+    <t>使用开始</t>
+  </si>
+  <si>
+    <t>使用结束</t>
+  </si>
+  <si>
+    <t>供应商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>品番</t>
-  </si>
-  <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>供应商编码</t>
-  </si>
-  <si>
-    <t>供应商工区</t>
-  </si>
-  <si>
-    <t>车种代码</t>
-  </si>
-  <si>
-    <t>检查区分</t>
-  </si>
-  <si>
-    <t>变更原因</t>
-  </si>
-  <si>
-    <t>特记事项</t>
-  </si>
-  <si>
-    <t>操作人</t>
-  </si>
-  <si>
-    <t>操作时间</t>
   </si>
 </sst>
 </file>
@@ -404,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -415,42 +406,33 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
